--- a/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540003</t>
+          <t>002624</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合A</t>
+          <t>广发优企精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>29.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.54</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.17</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>12.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>960001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>广发行业领先混合H</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>90.26</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.53</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>540003</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>汇丰晋信动态策略混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002624</t>
+          <t>960003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合A</t>
+          <t>汇丰晋信动态策略混合H</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>960003</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合H</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006354</t>
+          <t>000747</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰民裕进取灵活配置混合</t>
+          <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30.39</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>88.59</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>93.24</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>8.43</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>006354</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>国泰民裕进取灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>30.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005146</t>
+          <t>002624</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴银丰润灵活配置混合</t>
+          <t>广发优企精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.43</t>
+          <t>27.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270008</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发核心精选混合</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6692</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>270008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>广发核心精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000706</t>
+          <t>000747</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮多策略灵活配置混合</t>
+          <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>59.43</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>010021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>广发优企精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>92.17</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>6.43</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008890</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>41.82</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002624</t>
+          <t>960001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合A</t>
+          <t>广发行业领先混合H</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010021</t>
+          <t>000706</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合C</t>
+          <t>中邮多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6652</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,4 +1791,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6434</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.06</v>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.74</v>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.14</v>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2163,13 +2250,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>11</v>
       </c>
       <c r="D5" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
         <v>4.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2369,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,17 +2381,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2400,14 +2421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.75</v>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0345</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2416,14 +2459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.06</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2432,14 +2497,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.74</v>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2448,14 +2535,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.14</v>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2464,13 +2573,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>11</v>
       </c>
       <c r="D6" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
         <v>4.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2958,7 +2959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,17 +2970,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2989,14 +3010,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.33</v>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3005,14 +3048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.75</v>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3021,14 +3086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.06</v>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3037,14 +3124,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.74</v>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9424</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3053,14 +3162,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.14</v>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9424</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3069,13 +3200,715 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>11</v>
       </c>
       <c r="D7" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
         <v>4.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,471 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2284</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161609</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通动力先锋混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9747</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5758</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5758</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>540003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5104</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+      <c r="D6" t="n">
+        <v>2.74</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>960003</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合H</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5104</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4164</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000747</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006354</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰民裕进取灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>30.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.87</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -931,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -982,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002624</t>
+          <t>070019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合A</t>
+          <t>嘉实价值优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.92</t>
+          <t>25.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5803</t>
+          <t>1.2571</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1020,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>002624</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>广发优企精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6692</t>
+          <t>1.2104</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1058,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270008</t>
+          <t>011866</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发核心精选混合</t>
+          <t>广发价值增长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>18.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5866</t>
+          <t>1.1871</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1096,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2000</t>
+          <t>0.9424</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1134,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>960001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>广发行业领先混合H</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0644</t>
+          <t>0.9424</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1172,32 +846,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010021</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合C</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>24.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.55</t>
+          <t>63.76</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0226</t>
+          <t>0.7094</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1210,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>013626</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>华夏周期驱动混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1248,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008890</t>
+          <t>000747</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
+          <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>41.82</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.1030</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1286,32 +960,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005146</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兴银丰润灵活配置混合</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.43</t>
+          <t>71.65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0747</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1324,32 +998,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>013627</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>华夏周期驱动混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0731</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1362,36 +1036,378 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000706</t>
+          <t>011867</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮多策略灵活配置混合</t>
+          <t>广发价值增长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>59.43</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0557</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1405,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1426,7 +1442,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1466,26 +1482,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.96</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5675</t>
+          <t>1.0345</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1494,36 +1510,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>011866</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>广发价值增长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>18.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.47</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6652</t>
+          <t>0.9536</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1532,36 +1548,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270008</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发核心精选混合</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>91.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4175</t>
+          <t>0.7444</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1570,36 +1586,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>960001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>广发行业领先混合H</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>91.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.7444</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1608,36 +1624,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010021</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合C</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>23.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>63.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.5659</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1646,36 +1662,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>000747</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0854</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1684,36 +1700,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009206</t>
+          <t>210002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合C</t>
+          <t>金鹰红利价值混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>69.18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1722,32 +1738,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005146</t>
+          <t>011867</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>兴银丰润灵活配置混合</t>
+          <t>广发价值增长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1760,35 +1776,225 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>011765</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>兴银高端制造混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.47</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1824,7 +2030,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1864,26 +2070,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.97</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2781</t>
+          <t>0.8760</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1902,26 +2108,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6434</t>
+          <t>0.7188</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1940,22 +2146,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0824</t>
+          <t>0.1032</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1978,22 +2184,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.64</t>
+          <t>78.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.0458</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2016,26 +2222,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2059,12 +2265,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2073,7 +2279,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2314,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2148,26 +2354,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>19.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>91.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8760</t>
+          <t>1.2781</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2186,26 +2392,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7188</t>
+          <t>0.6434</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2224,22 +2430,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>89.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1032</t>
+          <t>0.0824</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2262,22 +2468,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>78.72</t>
+          <t>74.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0458</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2300,26 +2506,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>91.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2343,12 +2549,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2357,7 +2563,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2392,7 +2598,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2432,26 +2638,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>24.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0345</t>
+          <t>1.5675</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2460,36 +2666,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011866</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发价值增长混合型证券投资基金A</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.06</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>86.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9536</t>
+          <t>0.6652</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2498,36 +2704,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>270008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>广发核心精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>89.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7444</t>
+          <t>0.4175</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2536,36 +2742,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>000747</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>84.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7444</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2574,36 +2780,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>010021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>广发优企精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.58</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>63.95</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5659</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2612,36 +2818,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>009205</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>兴银丰运稳益回报混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>37.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0854</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2650,36 +2856,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>009206</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>兴银丰运稳益回报混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.18</t>
+          <t>37.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0719</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2688,32 +2894,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011867</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发价值增长混合型证券投资基金C</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2726,225 +2932,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011765</t>
+          <t>960001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>兴银高端制造混合A</t>
+          <t>广发行业领先混合H</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>86.47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000994</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信睿盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000995</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信睿盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2959,7 +2975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2980,7 +2996,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3010,36 +3026,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070019</t>
+          <t>002624</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实价值优势混合</t>
+          <t>广发优企精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.55</t>
+          <t>27.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>86.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2571</t>
+          <t>1.5803</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3048,36 +3064,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002624</t>
+          <t>270025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发优企精选灵活配置混合A</t>
+          <t>广发行业领先混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.57</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2104</t>
+          <t>0.6692</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3086,36 +3102,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011866</t>
+          <t>270008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发价值增长混合型证券投资基金A</t>
+          <t>广发核心精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.32</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1871</t>
+          <t>0.5866</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3124,36 +3140,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>270025</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发行业领先混合A</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.34</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9424</t>
+          <t>0.2000</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3162,36 +3178,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>960001</t>
+          <t>000747</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发行业领先混合H</t>
+          <t>广发逆向策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.34</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>83.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9424</t>
+          <t>0.0644</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3200,32 +3216,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>010021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>广发优企精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.21</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>63.76</t>
+          <t>86.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7094</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3238,36 +3254,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013626</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏周期驱动混合A</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3276,36 +3292,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000747</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发逆向策略灵活配置混合</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>41.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1030</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -3314,32 +3330,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>71.65</t>
+          <t>95.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0747</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3352,32 +3368,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013627</t>
+          <t>960001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏周期驱动混合C</t>
+          <t>广发行业领先混合H</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0731</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3390,378 +3406,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011867</t>
+          <t>000706</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发价值增长混合型证券投资基金C</t>
+          <t>中邮多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>59.43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0557</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011765</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000994</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信睿盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>970020</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>信达价值精选一年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>63.29</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>970021</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>信达价值精选一年持有期灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>63.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000995</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信睿盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011758</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3775,144 +3449,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.8</v>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.33</v>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.87</v>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>6.8</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>4.33</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.75</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>3.14</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>11</v>
       </c>
       <c r="D8" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
         <v>4.87</v>
       </c>
     </row>
@@ -600,6 +617,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2788</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0102</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8428</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7443</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3905</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +2362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1996,290 +2943,6 @@
       </c>
       <c r="H15" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8760</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7188</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000747</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1032</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0458</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +2977,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2354,26 +3017,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.97</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2781</t>
+          <t>0.8760</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2392,26 +3055,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6434</t>
+          <t>0.7188</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2430,22 +3093,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0824</t>
+          <t>0.1032</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2468,22 +3131,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.64</t>
+          <t>78.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.0458</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2506,26 +3169,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2549,12 +3212,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2563,7 +3226,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2572,6 +3235,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6434</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2969,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3443,7 +4390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300575-中旗股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>7.64</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>6.8</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>4.33</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.75</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>3.14</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>11</v>
       </c>
       <c r="D9" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" t="n">
         <v>4.87</v>
       </c>
     </row>
@@ -616,7 +633,1791 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8923</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8894</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7955</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6909</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4769</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011427</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011867</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011428</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015880</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015881</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011758</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1546,7 +3347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2362,7 +4163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2943,290 +4744,6 @@
       </c>
       <c r="H15" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8760</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7188</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000747</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1032</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0458</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +4778,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3301,26 +4818,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.97</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2781</t>
+          <t>0.8760</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3339,26 +4856,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6434</t>
+          <t>0.7188</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3377,22 +4894,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0824</t>
+          <t>0.1032</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3415,22 +4932,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.64</t>
+          <t>78.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.0458</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3453,26 +4970,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3496,12 +5013,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3510,7 +5027,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3519,6 +5036,290 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6434</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3916,7 +5717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4388,478 +6189,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2284</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161609</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通动力先锋混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9747</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5758</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5758</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>540003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5104</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>960003</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合H</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5104</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4164</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000747</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006354</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰民裕进取灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>30.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>